--- a/biology/Botanique/Vesce_cultivée/Vesce_cultivée.xlsx
+++ b/biology/Botanique/Vesce_cultivée/Vesce_cultivée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vesce_cultiv%C3%A9e</t>
+          <t>Vesce_cultivée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vicia sativa, la vesce commune ou vesce cultivée, est une espèce de plantes dicotylédones de la famille des Fabaceae, originaire d'Eurasie. Ce sont des plantes herbacées annuelles, grimpantes, souvent cultivées comme plantes fourragères.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vesce_cultiv%C3%A9e</t>
+          <t>Vesce_cultivée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige à croissance hypogée est simple ou ramifiée, grimpante et peut atteindre 70 cm de hauteur.
 La feuille est composée de 3 et 8 paires de folioles et terminée par une vrille ramifiée. Les stipules sont, généralement, nectarifères. Chez certaines variétés, des taches d'anthocyanes sont observées sur les tiges.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vesce_cultiv%C3%A9e</t>
+          <t>Vesce_cultivée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une espèce messicole. Elle se rencontre aussi dans les champs, les parcours, parmi les buissons et au bord des chemins sur des terrains à altitude variable (0 à 850 m). Les pluviométries inférieures à 250 mm limitent sa zone écologique vers les régions arides du Centre et du Sud.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vesce_cultiv%C3%A9e</t>
+          <t>Vesce_cultivée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,16 +596,18 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au néolithique, la vesce a été utilisée dans l'alimentation humaine et probablement cultivée dans le Sud de la France. Les jeunes pousses et les jeunes feuilles peuvent être mangées comme légumes[1]. Les jeunes feuilles et les pousses ont plus le goût de cosse que de petit pois. Les fleurs également comestibles sont utilisables en décor. Ses graines, bien que nourrissantes (d'où la culture ancienne de cette plante) n’ont pas un gout agréable, mais sont parfois utilisée en farine[2].
-L'on peut lui accorder des propriétés similaires à celle de Vicia faba : une valeur nutritive élevée, avec 23% de protides et 55% de glucides et des effets antispasmodiques, diurétiques et sédatifs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au néolithique, la vesce a été utilisée dans l'alimentation humaine et probablement cultivée dans le Sud de la France. Les jeunes pousses et les jeunes feuilles peuvent être mangées comme légumes. Les jeunes feuilles et les pousses ont plus le goût de cosse que de petit pois. Les fleurs également comestibles sont utilisables en décor. Ses graines, bien que nourrissantes (d'où la culture ancienne de cette plante) n’ont pas un gout agréable, mais sont parfois utilisée en farine.
+L'on peut lui accorder des propriétés similaires à celle de Vicia faba : une valeur nutritive élevée, avec 23% de protides et 55% de glucides et des effets antispasmodiques, diurétiques et sédatifs.
 Aujourd'hui cette légumineuse est principalement utilisée comme engrais vert et comme plante fourragère car elle présente différents atouts :
 elle a la capacité à fixer l'azote,
 elle peut être cultivée en association avec une céréale (seigle, avoine, triticale) qui lui sert de tuteur.
-elle est mellifère[4].
+elle est mellifère.
 elle peut être utilisée comme couvert végétal car elle produit une importante biomasse (20 à 35 t/ha) qui étouffe les adventices et est ensuite restituée au sol,
-elle est riche en protéines et en minéraux : ses graines contiennent 2,30 à 4,60 % de cendres. Ces cendres sont constituées de 27 à 46 % de potasse, 24 à 41 % de chaux, 7 à 13 % d'acide phosphorique, 6 à 11 % de magnésie, de la soude, de l'acide sulfurique, de l'acide silicique et du sesquioxyde de fer[5].</t>
+elle est riche en protéines et en minéraux : ses graines contiennent 2,30 à 4,60 % de cendres. Ces cendres sont constituées de 27 à 46 % de potasse, 24 à 41 % de chaux, 7 à 13 % d'acide phosphorique, 6 à 11 % de magnésie, de la soude, de l'acide sulfurique, de l'acide silicique et du sesquioxyde de fer.</t>
         </is>
       </c>
     </row>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vesce_cultiv%C3%A9e</t>
+          <t>Vesce_cultivée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,14 +635,85 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Vicia sativa a été décrite par Linné et publiée dans son Species plantarum, vol. 2, p. 736 en 1753[6],[7].
-Étymologie
-Le nom générique, Vicia, en grec βικία, dérivé du terme βικίον (petite amphore), latinisé en vĭcĭa, -ae, vesce ou pois (qui désignait principalement Vicia sativa L.)[8].
-L'épithète spécifique, sativa, est un adjectif  latin, sǎtīva, ōrum, qui signifie « cultivée »[9],[10].
-Synonymes
-Selon Catalogue of Life                                   (9 juin 2017)[11] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Vicia sativa a été décrite par Linné et publiée dans son Species plantarum, vol. 2, p. 736 en 1753,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vesce_cultivée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_cultiv%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom générique, Vicia, en grec βικία, dérivé du terme βικίον (petite amphore), latinisé en vĭcĭa, -ae, vesce ou pois (qui désignait principalement Vicia sativa L.).
+L'épithète spécifique, sativa, est un adjectif  latin, sǎtīva, ōrum, qui signifie « cultivée »,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vesce_cultivée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_cultiv%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 juin 2017) :
 Vicia bacla Moench
 Vicia communis Rouy
 Vicia cornigera Chaub.
@@ -646,10 +735,45 @@
 Vicia sativa subsp. terana (Losa) Benedi &amp; Molero
 Vicia terana Losa
 Vicia vulgaris Uspensky
-Liste des sous-espèces et variétés
-Vicia s. angustifolia et V. s. amphicarpa sont les sous-espèces les plus fréquentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vesce_cultivée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vesce_cultiv%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vicia s. angustifolia et V. s. amphicarpa sont les sous-espèces les plus fréquentes.
 Plus de 20 variétés sont inscrites au catalogue français et plus de 120 au catalogue européen. Elles sont classées en variétés d'hiver ou de printemps.
-Selon The Plant List            (9 juin 2017)[12] :
+Selon The Plant List            (9 juin 2017) :
 sous-espèce Vicia sativa subsp. amphicarpa (Dorthes) Asch.
 sous-espèce Vicia sativa subsp. consobrina (Pomel) Quézel &amp; Santa ex Greuter &amp; Burdet
 sous-espèce Vicia sativa subsp. cordata (Hoppe) Asch. &amp; Graebn.
@@ -661,31 +785,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vesce_cultiv%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vesce_cultivée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vesce_cultiv%C3%A9e</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sensibilité parasitaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La vesce est sensible à la limace grise.
 </t>
